--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -437,201 +437,219 @@
     <t xml:space="preserve">0.21</t>
   </si>
   <si>
-    <t xml:space="preserve">19 (33.33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 (66.67%)</t>
+    <t xml:space="preserve">23 (31.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 (68.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (39.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (56.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (56.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (29.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (13.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (30.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (17.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (60.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 (74.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (17.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (73.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (80.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (9.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (52.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (41.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (21.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (45.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (12.82%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (87.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (47.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (52.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (14.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (67.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (88.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (17.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (64.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (29.63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (70.37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (47.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (52.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (31.6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">22 (57.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (63.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (31.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 (5.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (10.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (26.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (18.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (73.7%)</t>
+    <t xml:space="preserve">4 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (89.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (36.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (15.8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (15.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (73.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (76.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (52.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (42.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (21.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (39.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (12.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (87.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (47.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (52.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (14.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (67.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (88.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (17.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (64.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (29.63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (70.37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (47.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (89.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (36.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.98</t>
   </si>
   <si>
@@ -716,274 +734,280 @@
     <t xml:space="preserve">0.38</t>
   </si>
   <si>
-    <t xml:space="preserve">9 (12.86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (87.14%)</t>
+    <t xml:space="preserve">5 (9.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (90.57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (60.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (22.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (41.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (18.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (72.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (23.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (76.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.23%)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (66.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">36 (59%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (31.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (11.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (29.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (16.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (41%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59</t>
+    <t xml:space="preserve">7 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.08</t>
   </si>
   <si>
     <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (72.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (23.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (76.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.08</t>
   </si>
   <si>
     <t xml:space="preserve">5 (27.78%)</t>
@@ -1698,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -1709,10 +1733,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
@@ -1720,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
@@ -1731,10 +1755,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6">
@@ -1742,10 +1766,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
@@ -1756,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1788,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
@@ -1778,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -1800,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
@@ -1808,10 +1832,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
@@ -1819,10 +1843,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
@@ -1830,10 +1854,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -1841,10 +1865,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16">
@@ -1852,10 +1876,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17">
@@ -1899,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -1910,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -1921,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
@@ -1932,10 +1956,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -1943,10 +1967,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -1954,10 +1978,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
         <v>237</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8">
@@ -1968,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -1976,10 +2000,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -1987,10 +2011,10 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +2022,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
@@ -2009,10 +2033,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13">
@@ -2020,10 +2044,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
         <v>237</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14">
@@ -2031,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
@@ -2042,10 +2066,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
@@ -2053,10 +2077,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17">
@@ -2064,10 +2088,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2100,10 +2124,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -2111,10 +2135,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -2122,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -2136,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -2147,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
@@ -2155,10 +2179,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8">
@@ -2169,7 +2193,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2201,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -2191,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -2199,10 +2223,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
@@ -2213,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -2221,10 +2245,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14">
@@ -2232,10 +2256,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">
@@ -2243,10 +2267,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16">
@@ -2254,10 +2278,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17">
@@ -2265,10 +2289,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2301,10 +2325,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -2315,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2347,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
@@ -2337,7 +2361,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
@@ -2348,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7">
@@ -2356,10 +2380,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8">
@@ -2370,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -2378,10 +2402,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -2389,10 +2413,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -2403,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12">
@@ -2411,10 +2435,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13">
@@ -2422,10 +2446,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14">
@@ -2433,10 +2457,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
@@ -2444,10 +2468,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16">
@@ -2455,10 +2479,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2491,10 +2515,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
@@ -2502,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
@@ -2513,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
@@ -2527,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
@@ -2538,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
@@ -2546,10 +2570,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8">
@@ -2560,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
@@ -2568,10 +2592,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
@@ -2582,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
@@ -2593,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12">
@@ -2604,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13">
@@ -2612,10 +2636,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14">
@@ -2623,10 +2647,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15">
@@ -2634,10 +2658,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16">
@@ -2648,7 +2672,7 @@
         <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17">
@@ -2656,7 +2680,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -2692,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -2703,10 +2727,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -2717,7 +2741,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -2728,7 +2752,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -2736,10 +2760,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -2750,7 +2774,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
@@ -2758,10 +2782,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
@@ -2772,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
@@ -2783,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
@@ -2791,10 +2815,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
@@ -2802,10 +2826,10 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13">
@@ -2813,10 +2837,10 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14">
@@ -2827,7 +2851,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15">
@@ -2871,10 +2895,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -2882,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
@@ -2893,10 +2917,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -2907,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
@@ -2918,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
@@ -2926,10 +2950,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
@@ -2937,10 +2961,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
@@ -2948,10 +2972,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10">
@@ -2959,10 +2983,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
@@ -2970,10 +2994,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
@@ -2984,7 +3008,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -2992,10 +3016,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14">
@@ -3006,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
@@ -3014,10 +3038,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16">
@@ -3028,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
@@ -3036,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18">
@@ -3047,10 +3071,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19">
@@ -3058,10 +3082,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20">
@@ -3069,10 +3093,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +3944,7 @@
         <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -3928,10 +3952,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -3939,7 +3963,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>149</v>
@@ -3975,7 +3999,7 @@
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -3986,7 +4010,7 @@
         <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -3997,7 +4021,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -4008,7 +4032,7 @@
         <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -4019,7 +4043,7 @@
         <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -4027,21 +4051,21 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -4049,10 +4073,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -4060,10 +4084,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -4071,10 +4095,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -4082,10 +4106,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4118,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -4132,7 +4156,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -4140,10 +4164,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -4154,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -4165,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7">
@@ -4176,7 +4200,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8">
@@ -4184,10 +4208,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -4198,7 +4222,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -4206,10 +4230,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -4217,10 +4241,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
@@ -4231,7 +4255,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
@@ -4239,10 +4263,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
@@ -4253,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
@@ -4261,10 +4285,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
@@ -4275,7 +4299,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
@@ -4294,10 +4318,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4330,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
@@ -4341,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
@@ -4352,10 +4376,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -4363,10 +4387,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -4377,7 +4401,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
@@ -4385,10 +4409,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
@@ -4396,10 +4420,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
@@ -4407,10 +4431,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -4418,10 +4442,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11">
@@ -4429,10 +4453,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
@@ -4440,10 +4464,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
@@ -4451,10 +4475,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14">
@@ -4462,10 +4486,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -4473,10 +4497,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
@@ -4484,10 +4508,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -4495,10 +4519,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -4506,10 +4530,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4542,10 +4566,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -4553,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
@@ -4564,10 +4588,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -4578,7 +4602,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -4589,7 +4613,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
@@ -4597,10 +4621,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
@@ -4608,10 +4632,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -4622,7 +4646,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -4630,10 +4654,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
@@ -4641,10 +4665,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
@@ -4655,7 +4679,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -4666,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
@@ -4677,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15">
@@ -4685,10 +4709,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -4696,10 +4720,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
@@ -4707,10 +4731,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18">
@@ -4718,10 +4742,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -4729,10 +4753,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
@@ -4743,7 +4767,7 @@
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4776,10 +4800,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
@@ -4787,10 +4811,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -4798,10 +4822,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -4812,7 +4836,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
@@ -4823,7 +4847,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
@@ -4834,18 +4858,18 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -4853,10 +4877,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -4864,10 +4888,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
@@ -4875,10 +4899,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12">
@@ -4886,10 +4910,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13">
@@ -4897,10 +4921,10 @@
         <v>154</v>
       </c>
       <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
         <v>242</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14">
@@ -4911,7 +4935,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
@@ -4922,7 +4946,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
@@ -4930,10 +4954,10 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17">
@@ -4944,7 +4968,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
@@ -4952,10 +4976,10 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19">
@@ -4966,18 +4990,18 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21">
@@ -4985,10 +5009,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -4996,10 +5020,10 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23">
@@ -5007,10 +5031,10 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
@@ -5018,10 +5042,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">4.74</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16</t>
+    <t xml:space="preserve">5.17</t>
   </si>
   <si>
     <t xml:space="preserve">median_efs_years</t>
@@ -272,330 +272,333 @@
     <t xml:space="preserve">7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05</t>
+    <t xml:space="preserve">6.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96</t>
   </si>
   <si>
     <t xml:space="preserve">4.67</t>
   </si>
   <si>
+    <t xml:space="preserve">2.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (13.75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (86.25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (49.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (90.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (50.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (18.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (72.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (75.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 (94.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (81.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (16.44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (83.56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (41.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (44.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (58.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (55.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (19.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (63.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (14.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (80.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (9.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (67.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (31.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 (68.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (39.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (56.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (56.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (29.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (13.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (30.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (17.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (60.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 (74.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (17.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (73.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (80.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (9.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (52.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (41.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (21.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (45.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (12.82%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (87.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (47.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (52.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (14.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (67.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (88.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (17.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (64.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.96</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (13.75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (86.25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (49.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (90.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (50.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (18.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (72.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (75.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 (94.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (81.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (16.44%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (83.56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (41.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (44.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (58.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (55.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (19.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (63.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (14.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (80.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (67.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (31.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 (68.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (39.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (56.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (56.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (29.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (13.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (30.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (17.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (60.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 (74.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (17.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (11.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (73.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (80.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (52.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (41.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (21.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (45.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (12.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (87.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (47.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (52.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (14.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (67.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (88.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (17.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (64.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.67</t>
   </si>
   <si>
@@ -722,7 +725,7 @@
     <t xml:space="preserve">4.11</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44</t>
+    <t xml:space="preserve">6.94</t>
   </si>
   <si>
     <t xml:space="preserve">1.48</t>
@@ -917,15 +920,18 @@
     <t xml:space="preserve">3.57</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09</t>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
   </si>
   <si>
     <t xml:space="preserve">1.29</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.17</t>
   </si>
   <si>
@@ -1109,10 +1115,10 @@
     <t xml:space="preserve">1.83</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
+    <t xml:space="preserve">3.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37</t>
   </si>
   <si>
     <t xml:space="preserve">0.48</t>
@@ -1722,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
@@ -1733,10 +1739,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
@@ -1744,10 +1750,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
@@ -1755,10 +1761,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
@@ -1766,10 +1772,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
@@ -1780,7 +1786,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1788,10 +1794,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
@@ -1802,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -1813,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
@@ -1824,7 +1830,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1838,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
@@ -1843,7 +1849,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -1854,10 +1860,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
@@ -1865,10 +1871,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16">
@@ -1876,10 +1882,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
@@ -1923,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -1934,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -1945,10 +1951,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
@@ -1956,7 +1962,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
@@ -1967,7 +1973,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
         <v>182</v>
@@ -1978,10 +1984,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -2000,7 +2006,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
         <v>184</v>
@@ -2011,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>158</v>
@@ -2022,7 +2028,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
         <v>182</v>
@@ -2033,7 +2039,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
         <v>182</v>
@@ -2044,10 +2050,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -2055,10 +2061,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
@@ -2066,10 +2072,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16">
@@ -2077,10 +2083,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
@@ -2088,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2124,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -2135,10 +2141,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -2146,10 +2152,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -2160,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
@@ -2171,7 +2177,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7">
@@ -2179,10 +2185,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
@@ -2193,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9">
@@ -2201,10 +2207,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
@@ -2215,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
@@ -2223,10 +2229,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12">
@@ -2237,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
@@ -2245,10 +2251,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
@@ -2256,10 +2262,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15">
@@ -2267,10 +2273,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16">
@@ -2278,10 +2284,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -2289,10 +2295,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2325,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -2339,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
@@ -2347,10 +2353,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
@@ -2361,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6">
@@ -2372,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -2380,10 +2386,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8">
@@ -2394,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -2402,10 +2408,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
@@ -2413,10 +2419,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
@@ -2427,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
@@ -2435,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
@@ -2446,10 +2452,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14">
@@ -2457,10 +2463,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
@@ -2468,10 +2474,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16">
@@ -2479,10 +2485,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2515,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -2526,10 +2532,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -2537,10 +2543,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
@@ -2551,7 +2557,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
@@ -2562,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
@@ -2570,10 +2576,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -2584,7 +2590,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
@@ -2592,10 +2598,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10">
@@ -2606,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11">
@@ -2617,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -2628,7 +2634,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13">
@@ -2636,10 +2642,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
@@ -2647,10 +2653,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15">
@@ -2658,10 +2664,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16">
@@ -2672,7 +2678,7 @@
         <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17">
@@ -2680,7 +2686,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -2716,10 +2722,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -2730,7 +2736,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4">
@@ -2741,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
@@ -2752,7 +2758,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -2763,7 +2769,7 @@
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
@@ -2774,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
@@ -2785,7 +2791,7 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
@@ -2796,7 +2802,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
@@ -2807,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11">
@@ -2818,7 +2824,7 @@
         <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12">
@@ -2826,10 +2832,10 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13">
@@ -2837,10 +2843,10 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
@@ -2851,7 +2857,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15">
@@ -2895,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
@@ -2906,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -2917,10 +2923,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -2931,7 +2937,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -2942,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
@@ -2950,10 +2956,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8">
@@ -2961,10 +2967,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
@@ -2972,10 +2978,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
@@ -2983,10 +2989,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
@@ -2994,10 +3000,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -3008,7 +3014,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13">
@@ -3016,10 +3022,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14">
@@ -3030,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
@@ -3038,10 +3044,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16">
@@ -3052,7 +3058,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17">
@@ -3060,10 +3066,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18">
@@ -3071,10 +3077,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
@@ -3082,10 +3088,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20">
@@ -3093,10 +3099,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4316,7 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -4318,10 +4324,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4354,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
@@ -4365,10 +4371,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -4376,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -4387,10 +4393,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
@@ -4401,7 +4407,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -4409,10 +4415,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
@@ -4420,10 +4426,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -4431,10 +4437,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
@@ -4442,10 +4448,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
@@ -4453,7 +4459,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
         <v>158</v>
@@ -4464,10 +4470,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4481,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
@@ -4486,10 +4492,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
         <v>195</v>
-      </c>
-      <c r="C14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -4497,10 +4503,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
@@ -4508,10 +4514,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
@@ -4519,10 +4525,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -4530,10 +4536,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4566,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -4577,10 +4583,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -4588,10 +4594,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -4602,7 +4608,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
@@ -4613,7 +4619,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -4621,10 +4627,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -4632,10 +4638,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
@@ -4646,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
@@ -4654,10 +4660,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -4665,7 +4671,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>158</v>
@@ -4679,7 +4685,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
@@ -4690,7 +4696,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
@@ -4701,7 +4707,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -4709,10 +4715,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16">
@@ -4720,10 +4726,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
         <v>222</v>
-      </c>
-      <c r="C16" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17">
@@ -4731,10 +4737,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
@@ -4742,10 +4748,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19">
@@ -4753,10 +4759,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20">
@@ -4767,7 +4773,7 @@
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4800,10 +4806,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
@@ -4811,10 +4817,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -4822,10 +4828,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
@@ -4836,7 +4842,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
@@ -4847,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
@@ -4858,18 +4864,18 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>244</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4883,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10">
@@ -4888,10 +4894,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11">
@@ -4902,7 +4908,7 @@
         <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12">
@@ -4910,10 +4916,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
@@ -4924,7 +4930,7 @@
         <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14">
@@ -4935,7 +4941,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
@@ -4946,7 +4952,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16">
@@ -4957,7 +4963,7 @@
         <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
@@ -4968,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
@@ -4976,10 +4982,10 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
@@ -4990,7 +4996,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -5001,7 +5007,7 @@
         <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21">
@@ -5009,7 +5015,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
         <v>105</v>
@@ -5020,10 +5026,10 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
@@ -5034,7 +5040,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -5042,10 +5048,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,28 +41,28 @@
     <t xml:space="preserve">Number Cohort</t>
   </si>
   <si>
-    <t xml:space="preserve">45 (20.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178 (79.82%)</t>
+    <t xml:space="preserve">47 (21.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 (78.92%)</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">29 (64.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 (41%)</t>
+    <t xml:space="preserve">29 (61.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 (41.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">16 (35.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105 (59%)</t>
+    <t xml:space="preserve">18 (38.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 (58.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">American Indian or Alaska Native</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
-    <t xml:space="preserve">5 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (7.9%)</t>
+    <t xml:space="preserve">5 (10.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (8%)</t>
   </si>
   <si>
     <t xml:space="preserve">More Than One Race</t>
@@ -95,43 +95,43 @@
     <t xml:space="preserve">Other/Unknown Race</t>
   </si>
   <si>
-    <t xml:space="preserve">7 (15.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (11.8%)</t>
+    <t xml:space="preserve">7 (14.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (11.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">White</t>
   </si>
   <si>
-    <t xml:space="preserve">33 (73.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138 (77.5%)</t>
+    <t xml:space="preserve">35 (74.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 (77.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (13.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (7.3%)</t>
+    <t xml:space="preserve">6 (12.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (7.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Not Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">38 (84.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163 (91.6%)</t>
+    <t xml:space="preserve">40 (85.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161 (91.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">Unavailable</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (2.2%)</t>
+    <t xml:space="preserve">1 (2.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (1.1%)</t>
@@ -140,7 +140,10 @@
     <t xml:space="preserve">AFR</t>
   </si>
   <si>
-    <t xml:space="preserve">16 (9%)</t>
+    <t xml:space="preserve">4 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (9.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">AMR</t>
@@ -152,10 +155,7 @@
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
-    <t xml:space="preserve">32 (71.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142 (79.8%)</t>
+    <t xml:space="preserve">139 (79%)</t>
   </si>
   <si>
     <t xml:space="preserve">SAS</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">median_age</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35</t>
+    <t xml:space="preserve">6.12</t>
   </si>
   <si>
     <t xml:space="preserve">9.08</t>
@@ -173,955 +173,868 @@
     <t xml:space="preserve">median_os_years</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17</t>
+    <t xml:space="preserve">4.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18</t>
   </si>
   <si>
     <t xml:space="preserve">median_efs_years</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74</t>
+    <t xml:space="preserve">2.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78</t>
   </si>
   <si>
     <t xml:space="preserve">median_tmb</t>
   </si>
   <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (26.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71 (73.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (38.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (39.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (61.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 (60.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (11.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (12.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (76.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 (71.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (88.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62 (87.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (14.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 (48.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (83.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (51.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (8.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (73.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 (92.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 (80.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (19.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (80.82%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (44.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 (55.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (18.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (66.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (92.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (81.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (15.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (69.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.28</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (20.62%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77 (79.38%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (45%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (37.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (55%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (62.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (11.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57 (74%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67 (87%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (3.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 (70.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91</t>
+    <t xml:space="preserve">25 (33.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (66.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (16.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 (75.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (10.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (81.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (8.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (40.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (46.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (7.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (92.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (13.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (69.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (33.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (66.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (27.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (38.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (9.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (90.57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (60.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (22.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (39.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (18.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
   </si>
   <si>
     <t xml:space="preserve">0.36</t>
   </si>
   <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (13.75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (86.25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (49.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (90.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (50.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (18.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (72.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (75.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 (94.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (81.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.13</t>
+    <t xml:space="preserve">9 (64.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (72.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
   </si>
   <si>
     <t xml:space="preserve">9.51</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (16.44%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (83.56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (41.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (44.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (58.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (55.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (19.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (63.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (14.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (80.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (67.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (31.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 (68.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (39.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (56.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (56.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (29.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (13.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (30.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (17.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (60.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 (74.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (17.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (11.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (73.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (80.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (52.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (41.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (21.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (45.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (12.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (87.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (47.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (52.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (14.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (67.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (88.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (17.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (64.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (29.63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (70.37%)</t>
+    <t xml:space="preserve">4 (22.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (78.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (23.53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (76.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (34.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">5 (62.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">9 (47.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (52.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (31.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10.5%)</t>
+    <t xml:space="preserve">17 (65.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (15.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (75%)</t>
   </si>
   <si>
-    <t xml:space="preserve">17 (89.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (36.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (90.57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (60.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (41.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
+    <t xml:space="preserve">19 (73.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (19.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92</t>
   </si>
   <si>
     <t xml:space="preserve">0.69</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (72.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (23.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (76.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (27.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (72.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (46.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (53.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (15.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (84.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (76.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (17.65%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (82.35%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (39.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (60.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (10.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (67.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (17.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (21.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
+    <t xml:space="preserve">1.51</t>
   </si>
   <si>
     <t xml:space="preserve">0.29</t>
@@ -1604,15 +1517,15 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1623,7 +1536,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1634,10 +1547,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -1728,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -1739,10 +1652,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
@@ -1750,10 +1663,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
@@ -1761,10 +1674,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
@@ -1772,10 +1685,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
@@ -1786,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
@@ -1794,10 +1707,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
@@ -1808,40 +1721,40 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
@@ -1849,10 +1762,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -1860,10 +1773,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1784,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16">
@@ -1882,10 +1795,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -1893,10 +1806,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
@@ -1940,10 +1853,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -1951,10 +1864,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -1962,10 +1875,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
@@ -1973,10 +1886,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7">
@@ -1984,10 +1897,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
@@ -1998,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -2006,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">
@@ -2017,10 +1930,10 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11">
@@ -2028,32 +1941,32 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -2061,10 +1974,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15">
@@ -2072,10 +1985,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16">
@@ -2083,10 +1996,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
@@ -2094,10 +2007,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2130,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -2141,10 +2054,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -2155,7 +2068,7 @@
         <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -2166,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
@@ -2177,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
@@ -2185,10 +2098,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -2199,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
@@ -2207,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
@@ -2221,7 +2134,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
@@ -2229,32 +2142,32 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14">
@@ -2262,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15">
@@ -2273,10 +2186,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16">
@@ -2284,10 +2197,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17">
@@ -2295,10 +2208,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2244,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -2342,10 +2255,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -2353,10 +2266,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
@@ -2367,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
@@ -2378,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -2386,10 +2299,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -2400,7 +2313,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -2408,43 +2321,43 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13">
@@ -2452,10 +2365,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14">
@@ -2463,10 +2376,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15">
@@ -2474,10 +2387,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16">
@@ -2485,10 +2398,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2521,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -2532,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -2543,10 +2456,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -2557,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
@@ -2568,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
@@ -2576,10 +2489,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
@@ -2590,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -2598,10 +2511,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -2612,7 +2525,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
@@ -2623,29 +2536,29 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
@@ -2653,10 +2566,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15">
@@ -2664,10 +2577,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16">
@@ -2675,10 +2588,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17">
@@ -2686,7 +2599,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -2722,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2646,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
@@ -2747,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
@@ -2758,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
@@ -2766,10 +2679,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -2780,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
@@ -2788,10 +2701,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
@@ -2802,29 +2715,29 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -2832,10 +2745,10 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13">
@@ -2843,10 +2756,10 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -2854,10 +2767,10 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
@@ -2865,7 +2778,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -2901,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
@@ -2912,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
@@ -2923,10 +2836,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -2937,7 +2850,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
@@ -2948,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -2956,10 +2869,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
@@ -2967,10 +2880,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
@@ -2978,10 +2891,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
@@ -2989,10 +2902,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
@@ -3000,10 +2913,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -3014,40 +2927,40 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -3058,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>358</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -3066,10 +2979,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18">
@@ -3077,10 +2990,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19">
@@ -3088,10 +3001,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
@@ -3099,10 +3012,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3234,10 +3147,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -3245,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -3259,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -3275,35 +3188,35 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -3322,10 +3235,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3333,10 +3246,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -3344,10 +3257,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3355,10 +3268,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3391,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -3402,10 +3315,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3326,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -3427,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -3438,7 +3351,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -3446,10 +3359,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -3460,7 +3373,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -3468,10 +3381,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -3479,10 +3392,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3493,7 +3406,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -3501,10 +3414,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -3512,10 +3425,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -3523,7 +3436,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>98</v>
@@ -3531,35 +3444,35 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -3567,10 +3480,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -3578,10 +3491,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -3589,10 +3502,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -3600,10 +3513,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -3611,10 +3524,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3647,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -3658,10 +3571,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -3669,10 +3582,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -3683,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -3691,10 +3604,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -3716,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -3724,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -3746,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>123</v>
@@ -3757,10 +3670,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3771,7 +3684,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -3779,7 +3692,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
@@ -3787,29 +3700,29 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
@@ -3859,7 +3772,7 @@
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3892,10 +3805,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -3903,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -3914,21 +3827,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -3936,10 +3849,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -3947,10 +3860,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -3958,10 +3871,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -3969,10 +3882,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -3980,10 +3893,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
@@ -3991,21 +3904,21 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -4013,10 +3926,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -4024,51 +3937,51 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>163</v>
@@ -4255,7 +4168,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -4266,7 +4179,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>184</v>
@@ -4302,10 +4215,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -4313,10 +4226,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -4324,10 +4237,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4360,10 +4273,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -4371,10 +4284,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -4382,10 +4295,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -4393,10 +4306,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -4407,7 +4320,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -4415,10 +4328,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
@@ -4426,10 +4339,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -4437,10 +4350,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -4448,10 +4361,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -4459,10 +4372,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -4470,32 +4383,32 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15">
@@ -4503,10 +4416,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
@@ -4514,10 +4427,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -4525,10 +4438,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18">
@@ -4536,10 +4449,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4572,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -4583,10 +4496,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -4619,7 +4532,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -4627,7 +4540,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
         <v>221</v>
@@ -4638,10 +4551,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9">
@@ -4652,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -4660,10 +4573,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -4671,10 +4584,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -4690,35 +4603,35 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16">
@@ -4726,10 +4639,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -4737,10 +4650,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
@@ -4748,10 +4661,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
@@ -4759,10 +4672,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -4770,10 +4683,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4806,10 +4719,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -4817,10 +4730,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -4828,21 +4741,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
@@ -4853,7 +4766,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -4864,18 +4777,18 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -4883,10 +4796,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
@@ -4894,10 +4807,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
         <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11">
@@ -4905,10 +4818,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -4916,21 +4829,21 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
@@ -4941,7 +4854,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
@@ -4952,40 +4865,40 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
@@ -4996,18 +4909,18 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
@@ -5015,10 +4928,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
@@ -5026,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
@@ -5037,10 +4950,10 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
@@ -5048,10 +4961,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,10 +41,10 @@
     <t xml:space="preserve">Number Cohort</t>
   </si>
   <si>
-    <t xml:space="preserve">47 (21.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176 (78.92%)</t>
+    <t xml:space="preserve">47 (21.17%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 (78.83%)</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">29 (61.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">73 (41.5%)</t>
+    <t xml:space="preserve">73 (41.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">Male</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">18 (38.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">103 (58.5%)</t>
+    <t xml:space="preserve">102 (58.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">American Indian or Alaska Native</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">7 (14.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">21 (11.9%)</t>
+    <t xml:space="preserve">21 (12%)</t>
   </si>
   <si>
     <t xml:space="preserve">White</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">35 (74.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">136 (77.3%)</t>
+    <t xml:space="preserve">135 (77.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">40 (85.1%)</t>
   </si>
   <si>
-    <t xml:space="preserve">161 (91.5%)</t>
+    <t xml:space="preserve">160 (91.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Unavailable</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
-    <t xml:space="preserve">139 (79%)</t>
+    <t xml:space="preserve">138 (78.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">SAS</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">6.12</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08</t>
+    <t xml:space="preserve">8.93</t>
   </si>
   <si>
     <t xml:space="preserve">median_os_years</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">4.58</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18</t>
+    <t xml:space="preserve">5.22</t>
   </si>
   <si>
     <t xml:space="preserve">median_efs_years</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">2.84</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78</t>
+    <t xml:space="preserve">3.82</t>
   </si>
   <si>
     <t xml:space="preserve">median_tmb</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13</t>
+    <t xml:space="preserve">6.18</t>
   </si>
   <si>
     <t xml:space="preserve">3.93</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67</t>
+    <t xml:space="preserve">4.86</t>
   </si>
   <si>
     <t xml:space="preserve">2.8</t>
@@ -281,706 +281,715 @@
     <t xml:space="preserve">0.59</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68 (85%)</t>
+    <t xml:space="preserve">12 (14.81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (85.19%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (16.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">33 (48.5%)</t>
+    <t xml:space="preserve">34 (49.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">10 (83.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">35 (51.5%)</t>
+    <t xml:space="preserve">35 (50.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (2.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (4.4%)</t>
+    <t xml:space="preserve">3 (4.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (8.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (73.5%)</t>
+    <t xml:space="preserve">6 (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 (73.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">12 (100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">63 (92.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.4%)</t>
+    <t xml:space="preserve">64 (92.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (75%)</t>
   </si>
   <si>
-    <t xml:space="preserve">55 (80.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.9%)</t>
+    <t xml:space="preserve">56 (81.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">11.07</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27</t>
+    <t xml:space="preserve">9.04</t>
   </si>
   <si>
     <t xml:space="preserve">3.39</t>
   </si>
   <si>
+    <t xml:space="preserve">5.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (19.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (80.82%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (44.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 (55.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (18.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (66.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (92.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (81.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (15.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (69.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (33.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (66.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (55.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (30.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (16.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;...9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (10.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (79.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;...14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (8.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (40.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;...19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (46.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (7.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (92.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (13.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (69.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (33.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (66.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (27.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (38.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (19.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (80.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (44.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (55.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (18.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (66.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (92.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (81.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (15.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (69.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (33.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (66.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (32%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (16.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 (75.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (10.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (81.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (8.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (52%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (40.8%)</t>
+    <t xml:space="preserve">5 (9.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (90.57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (60.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (22.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (39.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;NA&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">23 (46.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
+    <t xml:space="preserve">12 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (18.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (72.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (22.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (78.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86</t>
   </si>
   <si>
     <t xml:space="preserve">3.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (7.69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (92.31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (69.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (33.33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (66.67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (27.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (38.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (90.57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (60.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (39.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (72.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (78.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86</t>
   </si>
   <si>
     <t xml:space="preserve">8 (23.53%)</t>
@@ -1641,10 +1650,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -1652,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
@@ -1663,10 +1672,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
@@ -1674,10 +1683,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
@@ -1685,10 +1694,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7">
@@ -1699,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -1707,10 +1716,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
         <v>262</v>
-      </c>
-      <c r="C8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9">
@@ -1721,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
@@ -1732,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
@@ -1743,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12">
@@ -1751,10 +1760,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -1762,10 +1771,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1773,10 +1782,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15">
@@ -1784,10 +1793,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
@@ -1795,10 +1804,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17">
@@ -1806,10 +1815,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1842,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -1856,7 +1865,7 @@
         <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
@@ -1867,7 +1876,7 @@
         <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -1878,7 +1887,7 @@
         <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -1889,7 +1898,7 @@
         <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -1900,7 +1909,7 @@
         <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
@@ -1911,7 +1920,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -1919,10 +1928,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -1933,7 +1942,7 @@
         <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
@@ -1944,7 +1953,7 @@
         <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -1955,7 +1964,7 @@
         <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
@@ -1966,7 +1975,7 @@
         <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
@@ -1974,10 +1983,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1994,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
@@ -1996,10 +2005,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17">
@@ -2010,7 +2019,7 @@
         <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2043,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -2090,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -2098,10 +2107,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -2112,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -2120,10 +2129,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -2156,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
@@ -2167,7 +2176,7 @@
         <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14">
@@ -2175,10 +2184,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15">
@@ -2186,10 +2195,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16">
@@ -2197,10 +2206,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17">
@@ -2208,10 +2217,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2244,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
@@ -2255,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>199</v>
@@ -2266,10 +2275,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
@@ -2299,7 +2308,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>197</v>
@@ -2321,10 +2330,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -2332,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>199</v>
@@ -2354,10 +2363,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13">
@@ -2365,10 +2374,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14">
@@ -2376,10 +2385,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">
@@ -2387,10 +2396,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2407,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2434,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
@@ -2445,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>195</v>
@@ -2456,7 +2465,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
         <v>197</v>
@@ -2489,10 +2498,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -2511,7 +2520,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>205</v>
@@ -2555,7 +2564,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
         <v>197</v>
@@ -2566,10 +2575,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15">
@@ -2577,10 +2586,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16">
@@ -2588,10 +2597,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17">
@@ -2635,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
@@ -2646,10 +2655,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
@@ -2660,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
@@ -2671,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
@@ -2679,10 +2688,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -2693,7 +2702,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
@@ -2701,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
@@ -2715,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -2726,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
@@ -2734,10 +2743,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2745,10 +2754,10 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13">
@@ -2756,7 +2765,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -2767,10 +2776,10 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
@@ -2778,7 +2787,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -2814,10 +2823,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -2825,10 +2834,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
@@ -2836,10 +2845,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
@@ -2850,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
@@ -2869,10 +2878,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8">
@@ -2880,10 +2889,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9">
@@ -2891,10 +2900,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
@@ -2902,10 +2911,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
@@ -2935,10 +2944,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
@@ -2957,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -2979,10 +2988,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18">
@@ -2990,10 +2999,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19">
@@ -3001,10 +3010,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
@@ -3015,7 +3024,7 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -3395,7 +3404,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -3414,10 +3423,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -3439,7 +3448,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -3469,10 +3478,10 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -3483,7 +3492,7 @@
         <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -3491,10 +3500,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -3502,10 +3511,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
         <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -3513,10 +3522,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -3524,10 +3533,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3560,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -3571,10 +3580,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -3582,10 +3591,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -3596,7 +3605,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -3604,10 +3613,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -3618,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
@@ -3629,7 +3638,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -3637,10 +3646,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -3648,10 +3657,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -3659,10 +3668,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -3670,10 +3679,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -3684,7 +3693,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -3692,10 +3701,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -3706,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3714,10 +3723,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -3725,10 +3734,10 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -3736,10 +3745,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -3747,10 +3756,10 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
         <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -3758,10 +3767,10 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
         <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21">
@@ -3769,10 +3778,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3805,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -3816,10 +3825,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -3827,21 +3836,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -3849,10 +3858,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -3860,10 +3869,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -3871,10 +3880,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -3882,153 +3891,175 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
         <v>160</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
         <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4061,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -4075,7 +4106,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -4083,10 +4114,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -4097,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">
@@ -4108,7 +4139,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
@@ -4119,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
@@ -4127,10 +4158,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -4141,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -4149,10 +4180,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
@@ -4160,10 +4191,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
@@ -4174,7 +4205,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
@@ -4182,10 +4213,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
@@ -4196,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -4204,10 +4235,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
@@ -4215,7 +4246,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>189</v>
@@ -4226,7 +4257,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>190</v>
@@ -4375,7 +4406,7 @@
         <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -4449,7 +4480,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>216</v>
@@ -4485,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -4587,7 +4618,7 @@
         <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -4675,7 +4706,7 @@
         <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20">
@@ -4683,7 +4714,7 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
@@ -4719,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -4730,10 +4761,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -4741,21 +4772,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -4766,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -4782,7 +4813,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -4796,10 +4827,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -4807,10 +4838,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11">
@@ -4818,10 +4849,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12">
@@ -4829,10 +4860,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -4840,10 +4871,10 @@
         <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
@@ -4854,7 +4885,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
@@ -4873,10 +4904,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
@@ -4887,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
@@ -4895,10 +4926,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19">
@@ -4909,18 +4940,18 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21">
@@ -4928,10 +4959,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
@@ -4939,10 +4970,10 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
@@ -4950,10 +4981,10 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
@@ -4961,10 +4992,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18</t>
+    <t xml:space="preserve">6.28</t>
   </si>
   <si>
     <t xml:space="preserve">3.93</t>
@@ -341,261 +341,264 @@
     <t xml:space="preserve">3.39</t>
   </si>
   <si>
+    <t xml:space="preserve">5.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (19.18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (80.82%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (44.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 (55.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (18.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (66.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (92.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (81.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (15.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (69.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (33.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (66.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (55.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (30.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (16.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;...9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (10.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (79.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;...14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (8.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (52%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (40.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;...19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (46.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (7.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (92.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (13.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (69.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.01</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (19.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (80.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (44.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (55.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (18.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (66.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (92.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (81.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (15.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (69.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (33.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (66.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (55.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (30.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (16.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;...9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (10.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (68%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (79.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;...14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (8.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (52%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (40.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;...19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (46.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (7.69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (92.31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (69.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.03</t>
   </si>
   <si>
@@ -608,345 +611,372 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">9 (33.33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (66.67%)</t>
+    <t xml:space="preserve">8 (29.63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (70.37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (52.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (47.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (31.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (89.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (36.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (15.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (9.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (90.57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (60.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (22.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (39.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (6.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (18.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.71%)</t>
   </si>
   <si>
     <t xml:space="preserve">4 (44.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">10 (55.6%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 (55.6%)</t>
   </si>
   <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 (44.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (27.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (11.1%)</t>
+    <t xml:space="preserve">3 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (72.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
   </si>
   <si>
     <t xml:space="preserve">7 (77.8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">16 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (38.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (90.57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (60.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (39.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (72.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.23</t>
   </si>
   <si>
@@ -998,9 +1028,6 @@
     <t xml:space="preserve">26 (76.47%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (37.5%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 (34.6%)</t>
   </si>
   <si>
@@ -1014,12 +1041,6 @@
   </si>
   <si>
     <t xml:space="preserve">4 (15.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (75%)</t>
   </si>
   <si>
     <t xml:space="preserve">19 (73.1%)</t>
@@ -1650,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
@@ -1661,10 +1682,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
@@ -1672,10 +1693,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
@@ -1683,10 +1704,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
@@ -1694,10 +1715,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
@@ -1708,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
@@ -1716,10 +1737,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
@@ -1730,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
@@ -1741,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
@@ -1760,10 +1781,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -1771,7 +1792,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
@@ -1782,10 +1803,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15">
@@ -1793,10 +1814,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16">
@@ -1804,10 +1825,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17">
@@ -1815,7 +1836,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
@@ -1851,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
@@ -1862,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -1873,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -1884,10 +1905,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
@@ -1895,10 +1916,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7">
@@ -1906,10 +1927,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9">
@@ -1928,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
@@ -1939,7 +1960,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
         <v>157</v>
@@ -1950,10 +1971,10 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12">
@@ -1961,10 +1982,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
@@ -1972,10 +1993,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
@@ -1983,10 +2004,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15">
@@ -1994,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
@@ -2005,10 +2026,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -2016,10 +2037,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2076,7 @@
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -2063,10 +2084,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -2074,10 +2095,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -2088,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -2099,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
@@ -2107,10 +2128,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
@@ -2121,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -2129,10 +2150,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -2143,7 +2164,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -2154,7 +2175,7 @@
         <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
@@ -2165,7 +2186,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -2176,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14">
@@ -2184,10 +2205,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15">
@@ -2195,10 +2216,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -2206,10 +2227,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
@@ -2217,10 +2238,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2253,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -2264,10 +2285,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -2275,10 +2296,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
@@ -2289,7 +2310,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -2300,7 +2321,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
@@ -2308,10 +2329,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
@@ -2322,7 +2343,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -2330,10 +2351,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
@@ -2341,10 +2362,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -2355,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
@@ -2363,10 +2384,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
@@ -2374,10 +2395,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
@@ -2385,10 +2406,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
@@ -2396,10 +2417,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
@@ -2407,10 +2428,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2464,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -2454,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -2465,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
@@ -2479,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
@@ -2490,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -2498,10 +2519,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
@@ -2512,7 +2533,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -2520,10 +2541,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10">
@@ -2534,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -2545,7 +2566,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
@@ -2556,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
@@ -2564,10 +2585,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14">
@@ -2575,10 +2596,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
@@ -2586,10 +2607,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16">
@@ -2597,10 +2618,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17">
@@ -2644,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -2655,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
@@ -2669,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -2680,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
@@ -2688,7 +2709,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -2702,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8">
@@ -2710,10 +2731,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
@@ -2735,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -2743,7 +2764,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
@@ -2754,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
@@ -2765,7 +2786,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -2776,10 +2797,10 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15">
@@ -2823,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
@@ -2834,10 +2855,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
@@ -2845,10 +2866,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
@@ -2859,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -2878,10 +2899,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2910,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
@@ -2900,10 +2921,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
@@ -2911,10 +2932,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
@@ -2944,10 +2965,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14">
@@ -2966,7 +2987,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -2988,10 +3009,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18">
@@ -2999,10 +3020,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19">
@@ -3010,10 +3031,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20">
@@ -3024,7 +3045,7 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4246,10 +4267,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
@@ -4257,10 +4278,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -4268,10 +4289,10 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4336,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
@@ -4326,7 +4347,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>198</v>
@@ -4359,10 +4380,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -4370,7 +4391,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>200</v>
@@ -4384,7 +4405,7 @@
         <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10">
@@ -4392,10 +4413,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
         <v>205</v>
-      </c>
-      <c r="C10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -4414,10 +4435,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
         <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -4425,10 +4446,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14">
@@ -4436,10 +4457,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15">
@@ -4447,10 +4468,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
         <v>210</v>
-      </c>
-      <c r="C15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16">
@@ -4458,10 +4479,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
         <v>212</v>
-      </c>
-      <c r="C16" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -4469,10 +4490,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -4483,7 +4504,7 @@
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +4540,7 @@
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -4527,10 +4548,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
@@ -4538,10 +4559,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
         <v>219</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -4552,7 +4573,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -4563,7 +4584,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
@@ -4574,7 +4595,7 @@
         <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
@@ -4585,7 +4606,7 @@
         <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -4596,7 +4617,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -4607,7 +4628,7 @@
         <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
@@ -4629,7 +4650,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -4640,7 +4661,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
@@ -4651,7 +4672,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15">
@@ -4662,7 +4683,7 @@
         <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -4673,7 +4694,7 @@
         <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
@@ -4681,10 +4702,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18">
@@ -4692,10 +4713,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -4703,10 +4724,10 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
@@ -4750,10 +4771,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -4761,10 +4782,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -4772,10 +4793,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -4786,7 +4807,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -4797,7 +4818,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7">
@@ -4813,7 +4834,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -4827,10 +4848,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
@@ -4838,10 +4859,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
@@ -4849,10 +4870,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12">
@@ -4860,10 +4881,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
@@ -4871,10 +4892,10 @@
         <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14">
@@ -4885,7 +4906,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
@@ -4904,10 +4925,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17">
@@ -4918,7 +4939,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -4926,10 +4947,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19">
@@ -4940,18 +4961,18 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
@@ -4959,10 +4980,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
@@ -4970,10 +4991,10 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
@@ -4984,7 +5005,7 @@
         <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -4992,10 +5013,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -1,1081 +1,1088 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chop365-my.sharepoint.com/personal/corbettr_chop_edu/Documents/Desktop/OpenPBTA-germline/analyses/demo-clin-stats/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_60FFC6F45517C24173919E3A1BD6F032AD8FEC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8037D025-484E-F345-A93D-4F15E3456809}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-36140" yWindow="2040" windowWidth="24020" windowHeight="15700" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Low-grade glioma" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Medulloblastoma" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mixed neuronal-glial tumor" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Ependymoma" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Other high-grade glioma" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Craniopharyngioma" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ATRT" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Meningioma" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="DIPG or DMG" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Mesenchymal tumor" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Neurofibroma plexiform" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Non-neoplastic tumor" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Germ cell tumor" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Schwannoma" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Choroid plexus tumor" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Other tumor" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Low-grade glioma" sheetId="1" r:id="rId1"/>
+    <sheet name="Medulloblastoma" sheetId="2" r:id="rId2"/>
+    <sheet name="Mixed neuronal-glial tumor" sheetId="3" r:id="rId3"/>
+    <sheet name="Ependymoma" sheetId="4" r:id="rId4"/>
+    <sheet name="Other high-grade glioma" sheetId="5" r:id="rId5"/>
+    <sheet name="Craniopharyngioma" sheetId="6" r:id="rId6"/>
+    <sheet name="ATRT" sheetId="7" r:id="rId7"/>
+    <sheet name="Meningioma" sheetId="8" r:id="rId8"/>
+    <sheet name="DIPG or DMG" sheetId="9" r:id="rId9"/>
+    <sheet name="Mesenchymal tumor" sheetId="10" r:id="rId10"/>
+    <sheet name="Neurofibroma plexiform" sheetId="11" r:id="rId11"/>
+    <sheet name="Non-neoplastic tumor" sheetId="12" r:id="rId12"/>
+    <sheet name="Germ cell tumor" sheetId="13" r:id="rId13"/>
+    <sheet name="Schwannoma" sheetId="14" r:id="rId14"/>
+    <sheet name="Choroid plexus tumor" sheetId="15" r:id="rId15"/>
+    <sheet name="Other tumor" sheetId="16" r:id="rId16"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cpgPLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_cpgPLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 (21.17%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175 (78.83%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (61.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 (41.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (38.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 (58.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black or African American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (10.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More Than One Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (14.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (74.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135 (77.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (85.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160 (91.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unavailable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (9.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138 (78.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_os_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_efs_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_tmb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (26.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 (73.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (38.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (39.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (61.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 (60.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (11.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (12.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (76.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 (71.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (88.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62 (87.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (14.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (14.81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (85.19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (49.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (50.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (8.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 (73.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64 (92.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (81.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (19.18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (80.82%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (44.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (55.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (18.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (66.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (92.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (81.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (15.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (69.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (33.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (66.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (55.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (30.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (16.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;...9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (10.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (68%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (79.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;...14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (8.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (52%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (40.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;...19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (46.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (7.69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (92.31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (69.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (29.63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (70.37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (52.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (47.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (31.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (89.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (36.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (90.57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (60.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (39.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (72.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (78.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (23.53%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (76.47%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (34.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (65.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (15.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (73.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (19.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="347">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cpgPLP</t>
+  </si>
+  <si>
+    <t>no_cpgPLP</t>
+  </si>
+  <si>
+    <t>Number Cohort</t>
+  </si>
+  <si>
+    <t>47 (21.17%)</t>
+  </si>
+  <si>
+    <t>175 (78.83%)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>29 (61.7%)</t>
+  </si>
+  <si>
+    <t>73 (41.7%)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>18 (38.3%)</t>
+  </si>
+  <si>
+    <t>102 (58.3%)</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+  </si>
+  <si>
+    <t>1 (0.6%)</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>3 (1.7%)</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>5 (10.6%)</t>
+  </si>
+  <si>
+    <t>14 (8%)</t>
+  </si>
+  <si>
+    <t>More Than One Race</t>
+  </si>
+  <si>
+    <t>Other/Unknown Race</t>
+  </si>
+  <si>
+    <t>7 (14.9%)</t>
+  </si>
+  <si>
+    <t>21 (12%)</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>35 (74.5%)</t>
+  </si>
+  <si>
+    <t>135 (77.1%)</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>6 (12.8%)</t>
+  </si>
+  <si>
+    <t>13 (7.4%)</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>40 (85.1%)</t>
+  </si>
+  <si>
+    <t>160 (91.4%)</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>1 (2.1%)</t>
+  </si>
+  <si>
+    <t>2 (1.1%)</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>4 (8.5%)</t>
+  </si>
+  <si>
+    <t>17 (9.7%)</t>
+  </si>
+  <si>
+    <t>AMR</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>138 (78.9%)</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>median_age</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>8.93</t>
+  </si>
+  <si>
+    <t>median_os_years</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>median_efs_years</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>median_tmb</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>26 (26.8%)</t>
+  </si>
+  <si>
+    <t>71 (73.2%)</t>
+  </si>
+  <si>
+    <t>10 (38.5%)</t>
+  </si>
+  <si>
+    <t>28 (39.4%)</t>
+  </si>
+  <si>
+    <t>16 (61.5%)</t>
+  </si>
+  <si>
+    <t>43 (60.6%)</t>
+  </si>
+  <si>
+    <t>1 (1.4%)</t>
+  </si>
+  <si>
+    <t>1 (3.8%)</t>
+  </si>
+  <si>
+    <t>2 (2.8%)</t>
+  </si>
+  <si>
+    <t>6 (8.5%)</t>
+  </si>
+  <si>
+    <t>3 (11.5%)</t>
+  </si>
+  <si>
+    <t>9 (12.7%)</t>
+  </si>
+  <si>
+    <t>20 (76.9%)</t>
+  </si>
+  <si>
+    <t>51 (71.8%)</t>
+  </si>
+  <si>
+    <t>23 (88.5%)</t>
+  </si>
+  <si>
+    <t>62 (87.3%)</t>
+  </si>
+  <si>
+    <t>3 (4.2%)</t>
+  </si>
+  <si>
+    <t>10 (14.1%)</t>
+  </si>
+  <si>
+    <t>4 (5.6%)</t>
+  </si>
+  <si>
+    <t>49 (69%)</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>7.83</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>12 (14.81%)</t>
+  </si>
+  <si>
+    <t>69 (85.19%)</t>
+  </si>
+  <si>
+    <t>2 (16.7%)</t>
+  </si>
+  <si>
+    <t>34 (49.3%)</t>
+  </si>
+  <si>
+    <t>10 (83.3%)</t>
+  </si>
+  <si>
+    <t>35 (50.7%)</t>
+  </si>
+  <si>
+    <t>2 (2.9%)</t>
+  </si>
+  <si>
+    <t>3 (4.3%)</t>
+  </si>
+  <si>
+    <t>1 (8.3%)</t>
+  </si>
+  <si>
+    <t>6 (8.7%)</t>
+  </si>
+  <si>
+    <t>51 (73.9%)</t>
+  </si>
+  <si>
+    <t>12 (100%)</t>
+  </si>
+  <si>
+    <t>64 (92.8%)</t>
+  </si>
+  <si>
+    <t>5 (7.2%)</t>
+  </si>
+  <si>
+    <t>9 (75%)</t>
+  </si>
+  <si>
+    <t>56 (81.2%)</t>
+  </si>
+  <si>
+    <t>4 (5.8%)</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>9.04</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>14 (19.18%)</t>
+  </si>
+  <si>
+    <t>59 (80.82%)</t>
+  </si>
+  <si>
+    <t>6 (42.9%)</t>
+  </si>
+  <si>
+    <t>26 (44.1%)</t>
+  </si>
+  <si>
+    <t>8 (57.1%)</t>
+  </si>
+  <si>
+    <t>33 (55.9%)</t>
+  </si>
+  <si>
+    <t>1 (1.7%)</t>
+  </si>
+  <si>
+    <t>1 (7.1%)</t>
+  </si>
+  <si>
+    <t>3 (5.1%)</t>
+  </si>
+  <si>
+    <t>4 (6.8%)</t>
+  </si>
+  <si>
+    <t>11 (18.6%)</t>
+  </si>
+  <si>
+    <t>12 (85.7%)</t>
+  </si>
+  <si>
+    <t>39 (66.1%)</t>
+  </si>
+  <si>
+    <t>8 (13.6%)</t>
+  </si>
+  <si>
+    <t>13 (92.9%)</t>
+  </si>
+  <si>
+    <t>48 (81.4%)</t>
+  </si>
+  <si>
+    <t>5 (8.5%)</t>
+  </si>
+  <si>
+    <t>9 (15.3%)</t>
+  </si>
+  <si>
+    <t>41 (69.5%)</t>
+  </si>
+  <si>
+    <t>10.33</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>25 (33.78%)</t>
+  </si>
+  <si>
+    <t>49 (66.22%)</t>
+  </si>
+  <si>
+    <t>10 (40%)</t>
+  </si>
+  <si>
+    <t>27 (55.1%)</t>
+  </si>
+  <si>
+    <t>14 (56%)</t>
+  </si>
+  <si>
+    <t>15 (30.6%)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>1 (4%)</t>
+  </si>
+  <si>
+    <t>7 (14.3%)</t>
+  </si>
+  <si>
+    <t>2 (4.1%)</t>
+  </si>
+  <si>
+    <t>7 (28%)</t>
+  </si>
+  <si>
+    <t>8 (16.3%)</t>
+  </si>
+  <si>
+    <t>35 (71.4%)</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;...9</t>
+  </si>
+  <si>
+    <t>2 (8%)</t>
+  </si>
+  <si>
+    <t>4 (16%)</t>
+  </si>
+  <si>
+    <t>5 (10.2%)</t>
+  </si>
+  <si>
+    <t>17 (68%)</t>
+  </si>
+  <si>
+    <t>39 (79.6%)</t>
+  </si>
+  <si>
+    <t>Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t>3 (6.1%)</t>
+  </si>
+  <si>
+    <t>NA (NA%)</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;...14</t>
+  </si>
+  <si>
+    <t>5 (20%)</t>
+  </si>
+  <si>
+    <t>4 (8.2%)</t>
+  </si>
+  <si>
+    <t>13 (52%)</t>
+  </si>
+  <si>
+    <t>20 (40.8%)</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;...19</t>
+  </si>
+  <si>
+    <t>23 (46.9%)</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>10.74</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>3 (7.69%)</t>
+  </si>
+  <si>
+    <t>36 (92.31%)</t>
+  </si>
+  <si>
+    <t>16 (44.4%)</t>
+  </si>
+  <si>
+    <t>3 (100%)</t>
+  </si>
+  <si>
+    <t>20 (55.6%)</t>
+  </si>
+  <si>
+    <t>1 (2.8%)</t>
+  </si>
+  <si>
+    <t>5 (13.9%)</t>
+  </si>
+  <si>
+    <t>25 (69.4%)</t>
+  </si>
+  <si>
+    <t>4 (11.1%)</t>
+  </si>
+  <si>
+    <t>32 (88.9%)</t>
+  </si>
+  <si>
+    <t>1 (33.3%)</t>
+  </si>
+  <si>
+    <t>6 (16.7%)</t>
+  </si>
+  <si>
+    <t>2 (66.7%)</t>
+  </si>
+  <si>
+    <t>24 (66.7%)</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>7.61</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>8 (29.63%)</t>
+  </si>
+  <si>
+    <t>19 (70.37%)</t>
+  </si>
+  <si>
+    <t>4 (50%)</t>
+  </si>
+  <si>
+    <t>10 (52.6%)</t>
+  </si>
+  <si>
+    <t>9 (47.4%)</t>
+  </si>
+  <si>
+    <t>1 (12.5%)</t>
+  </si>
+  <si>
+    <t>6 (31.6%)</t>
+  </si>
+  <si>
+    <t>1 (5.3%)</t>
+  </si>
+  <si>
+    <t>3 (37.5%)</t>
+  </si>
+  <si>
+    <t>2 (10.5%)</t>
+  </si>
+  <si>
+    <t>6 (75%)</t>
+  </si>
+  <si>
+    <t>17 (89.5%)</t>
+  </si>
+  <si>
+    <t>2 (25%)</t>
+  </si>
+  <si>
+    <t>7 (36.8%)</t>
+  </si>
+  <si>
+    <t>3 (15.8%)</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>18 (72%)</t>
+  </si>
+  <si>
+    <t>5 (71.4%)</t>
+  </si>
+  <si>
+    <t>6 (33.3%)</t>
+  </si>
+  <si>
+    <t>2 (28.6%)</t>
+  </si>
+  <si>
+    <t>12 (66.7%)</t>
+  </si>
+  <si>
+    <t>4 (22.2%)</t>
+  </si>
+  <si>
+    <t>1 (5.6%)</t>
+  </si>
+  <si>
+    <t>1 (14.3%)</t>
+  </si>
+  <si>
+    <t>6 (85.7%)</t>
+  </si>
+  <si>
+    <t>9 (50%)</t>
+  </si>
+  <si>
+    <t>2 (11.1%)</t>
+  </si>
+  <si>
+    <t>16 (88.9%)</t>
+  </si>
+  <si>
+    <t>10 (55.6%)</t>
+  </si>
+  <si>
+    <t>12.75</t>
+  </si>
+  <si>
+    <t>13.66</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>6.94</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5 (9.43%)</t>
+  </si>
+  <si>
+    <t>48 (90.57%)</t>
+  </si>
+  <si>
+    <t>3 (60%)</t>
+  </si>
+  <si>
+    <t>29 (60.4%)</t>
+  </si>
+  <si>
+    <t>2 (40%)</t>
+  </si>
+  <si>
+    <t>16 (33.3%)</t>
+  </si>
+  <si>
+    <t>3 (6.2%)</t>
+  </si>
+  <si>
+    <t>6 (12.5%)</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>24 (50%)</t>
+  </si>
+  <si>
+    <t>1 (20%)</t>
+  </si>
+  <si>
+    <t>10 (20.8%)</t>
+  </si>
+  <si>
+    <t>11 (22.9%)</t>
+  </si>
+  <si>
+    <t>4 (80%)</t>
+  </si>
+  <si>
+    <t>19 (39.6%)</t>
+  </si>
+  <si>
+    <t>2 (4.2%)</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t>12 (25%)</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>4 (20%)</t>
+  </si>
+  <si>
+    <t>16 (80%)</t>
+  </si>
+  <si>
+    <t>3 (75%)</t>
+  </si>
+  <si>
+    <t>6 (37.5%)</t>
+  </si>
+  <si>
+    <t>1 (25%)</t>
+  </si>
+  <si>
+    <t>10 (62.5%)</t>
+  </si>
+  <si>
+    <t>4 (25%)</t>
+  </si>
+  <si>
+    <t>12 (75%)</t>
+  </si>
+  <si>
+    <t>1 (6.2%)</t>
+  </si>
+  <si>
+    <t>4 (100%)</t>
+  </si>
+  <si>
+    <t>3 (18.8%)</t>
+  </si>
+  <si>
+    <t>14 (87.5%)</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>7.03</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>9 (64.29%)</t>
+  </si>
+  <si>
+    <t>5 (35.71%)</t>
+  </si>
+  <si>
+    <t>4 (44.4%)</t>
+  </si>
+  <si>
+    <t>5 (55.6%)</t>
+  </si>
+  <si>
+    <t>3 (33.3%)</t>
+  </si>
+  <si>
+    <t>2 (22.2%)</t>
+  </si>
+  <si>
+    <t>8 (88.9%)</t>
+  </si>
+  <si>
+    <t>1 (11.1%)</t>
+  </si>
+  <si>
+    <t>16.95</t>
+  </si>
+  <si>
+    <t>12.78</t>
+  </si>
+  <si>
+    <t>7.79</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>7.47</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>8 (44.4%)</t>
+  </si>
+  <si>
+    <t>3 (16.7%)</t>
+  </si>
+  <si>
+    <t>7 (100%)</t>
+  </si>
+  <si>
+    <t>13 (72.2%)</t>
+  </si>
+  <si>
+    <t>14 (77.8%)</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>4 (30.77%)</t>
+  </si>
+  <si>
+    <t>9 (69.23%)</t>
+  </si>
+  <si>
+    <t>6 (66.7%)</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>12.13</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>7 (77.8%)</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15.58</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>4 (22.22%)</t>
+  </si>
+  <si>
+    <t>14 (77.78%)</t>
+  </si>
+  <si>
+    <t>7 (50%)</t>
+  </si>
+  <si>
+    <t>2 (14.3%)</t>
+  </si>
+  <si>
+    <t>11 (78.6%)</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>8 (23.53%)</t>
+  </si>
+  <si>
+    <t>26 (76.47%)</t>
+  </si>
+  <si>
+    <t>9 (34.6%)</t>
+  </si>
+  <si>
+    <t>5 (62.5%)</t>
+  </si>
+  <si>
+    <t>17 (65.4%)</t>
+  </si>
+  <si>
+    <t>2 (7.7%)</t>
+  </si>
+  <si>
+    <t>4 (15.4%)</t>
+  </si>
+  <si>
+    <t>19 (73.1%)</t>
+  </si>
+  <si>
+    <t>5 (19.2%)</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>8.23</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>0.29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1111,6 +1118,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,14 +1408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1421,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1465,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1487,7 +1508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1542,7 +1563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1564,7 +1585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +1596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1586,7 +1607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1597,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1619,7 +1640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1643,19 +1664,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1698,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1720,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1732,7 +1753,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1754,7 +1775,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1765,7 +1786,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1797,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1787,7 +1808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1798,7 +1819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1809,7 +1830,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1820,7 +1841,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1831,7 +1852,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1844,19 +1865,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1878,7 +1899,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +1910,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +1921,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +1943,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1933,7 +1954,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1965,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1955,7 +1976,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +1987,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1977,7 +1998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1988,7 +2009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2010,7 +2031,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2021,7 +2042,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2053,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2045,19 +2066,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2079,7 +2100,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2111,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2122,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2112,7 +2133,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2144,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2166,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2156,7 +2177,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2167,7 +2188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2178,7 +2199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2189,7 +2210,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2221,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2222,7 +2243,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2233,7 +2254,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2246,19 +2267,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2280,7 +2301,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2312,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2302,7 +2323,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2334,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2324,7 +2345,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2335,7 +2356,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2367,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2357,7 +2378,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2368,7 +2389,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2379,7 +2400,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2390,7 +2411,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2401,7 +2422,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2412,7 +2433,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2423,7 +2444,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2436,19 +2457,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2491,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2502,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2513,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2503,7 +2524,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2514,7 +2535,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2525,7 +2546,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2536,7 +2557,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2547,7 +2568,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2558,7 +2579,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2580,7 +2601,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2591,7 +2612,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2602,7 +2623,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2613,7 +2634,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2624,7 +2645,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2637,19 +2658,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +2692,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2703,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2693,7 +2714,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2704,7 +2725,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2715,7 +2736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2748,7 +2769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2759,7 +2780,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2770,7 +2791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2781,7 +2802,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2803,7 +2824,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2816,19 +2837,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2861,7 +2882,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +2893,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2883,7 +2904,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2894,7 +2915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2905,7 +2926,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2916,7 +2937,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2938,7 +2959,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2949,7 +2970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2960,7 +2981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2971,7 +2992,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2982,7 +3003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2993,7 +3014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3004,7 +3025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3026,7 +3047,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3037,7 +3058,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3050,19 +3071,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3095,7 +3116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3106,7 +3127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +3138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3128,7 +3149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3139,7 +3160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3172,7 +3193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3183,7 +3204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3194,7 +3215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3205,7 +3226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3237,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3227,7 +3248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3238,7 +3259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3249,7 +3270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -3260,7 +3281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3271,7 +3292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3282,7 +3303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3293,7 +3314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3306,19 +3327,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3340,7 +3361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3362,7 +3383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3373,7 +3394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3384,7 +3405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3395,7 +3416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3406,7 +3427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3417,7 +3438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3428,7 +3449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3439,7 +3460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3450,7 +3471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3461,7 +3482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3472,7 +3493,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3483,7 +3504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3494,7 +3515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3505,7 +3526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -3516,7 +3537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3527,7 +3548,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3538,7 +3559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3549,7 +3570,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3562,19 +3583,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3617,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3618,7 +3639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3629,7 +3650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3640,7 +3661,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3672,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3662,7 +3683,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3695,7 +3716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3706,7 +3727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3717,7 +3738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3728,7 +3749,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3739,7 +3760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3750,7 +3771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3761,7 +3782,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3772,7 +3793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3783,7 +3804,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -3794,7 +3815,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3807,19 +3828,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3830,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3841,7 +3868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3852,7 +3879,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -3874,7 +3901,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3896,7 +3923,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3907,7 +3934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3918,7 +3945,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -3929,7 +3956,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3940,7 +3967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3951,7 +3978,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -3962,7 +3989,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3973,7 +4000,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -3984,7 +4011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3995,7 +4022,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4006,7 +4033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -4017,7 +4044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4028,7 +4055,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -4039,7 +4066,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4061,7 +4088,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4072,7 +4099,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4085,19 +4112,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4119,7 +4146,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4130,7 +4157,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4141,7 +4168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4152,7 +4179,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4163,7 +4190,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4174,7 +4201,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4185,7 +4212,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4196,7 +4223,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4207,7 +4234,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4245,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4229,7 +4256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4251,7 +4278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4262,7 +4289,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4273,7 +4300,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4284,7 +4311,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -4297,19 +4324,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4331,7 +4358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4342,7 +4369,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4353,7 +4380,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4364,7 +4391,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4375,7 +4402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4386,7 +4413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4397,7 +4424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4408,7 +4435,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4419,7 +4446,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4430,7 +4457,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -4441,7 +4468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4452,7 +4479,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4463,7 +4490,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4474,7 +4501,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4485,7 +4512,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4496,7 +4523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -4509,19 +4536,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4543,7 +4570,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4554,7 +4581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4565,7 +4592,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4576,7 +4603,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4587,7 +4614,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4598,7 +4625,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4609,7 +4636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4620,7 +4647,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4631,7 +4658,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4642,7 +4669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -4653,7 +4680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4664,7 +4691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -4675,7 +4702,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -4686,7 +4713,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4697,7 +4724,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -4708,7 +4735,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4719,7 +4746,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4730,7 +4757,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4743,19 +4770,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4777,7 +4804,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4788,7 +4815,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4799,7 +4826,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -4810,7 +4837,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4821,7 +4848,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4832,7 +4859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -4843,7 +4870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4854,7 +4881,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4865,7 +4892,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4876,7 +4903,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4887,7 +4914,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -4898,7 +4925,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4909,7 +4936,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -4920,7 +4947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4931,7 +4958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -4942,7 +4969,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4953,7 +4980,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -4964,7 +4991,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -4975,7 +5002,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +5013,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4997,7 +5024,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -5008,7 +5035,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -5021,6 +5048,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,1033 +41,1066 @@
     <t xml:space="preserve">Number Cohort</t>
   </si>
   <si>
-    <t xml:space="preserve">47 (21.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176 (78.92%)</t>
+    <t xml:space="preserve">50 (22.42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173 (77.58%)</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
+    <t xml:space="preserve">28 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 (43.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98 (56.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (1.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black or African American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Than One Race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (11.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 (74%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133 (76.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158 (91.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other/Unknown Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (9.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 (76%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (2.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_os_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_efs_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_tmb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (28.12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (71.88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (40.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (37.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (59.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 (62.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (14.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (11.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (74.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (72.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (85.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (88.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (69.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (13.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 (86.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (90.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (81.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (73.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 (92.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (18.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (72.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (82.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (18.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 (81.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (46.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (41.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (53.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (58.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (92.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (67.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (15.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (35.53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (64.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (48.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (51%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (34.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (29.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 (77.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (8.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (70.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (83.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (25.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (44.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (18.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (46.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (10.26%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (89.74%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (11.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (8.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (91.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (68.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (29.63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (70.37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (52.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (47.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (31.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (89.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (36.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (15.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (29.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (70.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (23.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (17.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (52.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (87.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (88.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (58.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (11.32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (88.68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (50%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">29 (61.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">74 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">15 (31.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (12.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (48.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (21.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (59.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (19.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (23.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (83.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">18 (38.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">102 (58%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black or African American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (10.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More Than One Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (14.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (11.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (74.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135 (76.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (85.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161 (91.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other/Unknown Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (9.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138 (78.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (2.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_os_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_efs_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_tmb</t>
+    <t xml:space="preserve">2 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (25.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (21.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (92.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
   </si>
   <si>
     <t xml:space="preserve">0.31</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (27.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 (72.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (38.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (38.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (61.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 (61.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (11.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (12.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (76.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (88.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (87.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (68.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (15.19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67 (84.81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (49.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (50.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (8.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (73.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62 (92.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 (82.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.07</t>
+    <t xml:space="preserve">9 (64.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (25.93%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (74.07%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58</t>
   </si>
   <si>
     <t xml:space="preserve">9.51</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (19.72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57 (80.28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (42.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (57.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (19.3%)</t>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (22.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (14.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">12 (85.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">39 (68.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (14%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (92.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 (80.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (15.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (70.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (32.89%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 (67.11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (54.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (31.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (13.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (15.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (76.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 (82.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (52%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (43.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (45.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
+    <t xml:space="preserve">11 (78.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86</t>
   </si>
   <si>
     <t xml:space="preserve">3.26</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (7.69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (92.31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (69.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (29.63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (70.37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (52.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (47.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (31.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (89.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (36.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (9.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (90.57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (60.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (20.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (22.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (39.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (18.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (87.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (25.93%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (74.07%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (65%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (78.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (25.81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (74.19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (39.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (60.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (69.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (78.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (17.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (65.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (22.58%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (77.42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (70.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (79.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
   </si>
 </sst>
 </file>
@@ -1514,51 +1547,51 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1566,7 +1599,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1577,10 +1610,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -1591,54 +1624,54 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1682,10 +1715,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
         <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4">
@@ -1693,10 +1726,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
@@ -1704,10 +1737,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
         <v>256</v>
-      </c>
-      <c r="C5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6">
@@ -1715,10 +1748,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -1729,62 +1762,62 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13">
@@ -1792,54 +1825,54 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +1919,7 @@
         <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
@@ -1894,10 +1927,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
@@ -1905,10 +1938,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
@@ -1916,10 +1949,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1963,7 @@
         <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
@@ -1941,106 +1974,106 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2106,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
@@ -2084,10 +2117,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -2095,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
@@ -2109,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
@@ -2120,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
@@ -2128,10 +2161,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
@@ -2142,106 +2175,106 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2307,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
@@ -2285,10 +2318,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
@@ -2296,10 +2329,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
@@ -2310,7 +2343,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
@@ -2321,7 +2354,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -2329,10 +2362,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
@@ -2343,95 +2376,95 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2464,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
@@ -2475,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>272</v>
@@ -2486,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
@@ -2500,7 +2533,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -2511,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
@@ -2519,10 +2552,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
@@ -2533,106 +2566,106 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -2676,10 +2709,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -2690,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
@@ -2701,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6">
@@ -2709,10 +2742,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -2723,95 +2756,95 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2844,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -2855,10 +2888,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
@@ -2866,10 +2899,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -2880,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
@@ -2891,7 +2924,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
@@ -2899,10 +2932,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
@@ -2910,10 +2943,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
@@ -2921,76 +2954,76 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16">
@@ -3001,51 +3034,51 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3078,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -3089,10 +3122,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -3100,10 +3133,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -3114,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -3122,10 +3155,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -3133,10 +3166,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -3144,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -3155,10 +3188,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -3166,10 +3199,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -3177,76 +3210,76 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3254,54 +3287,54 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3334,10 +3367,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -3345,10 +3378,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -3356,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
@@ -3370,7 +3403,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -3389,10 +3422,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -3403,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -3411,10 +3444,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -3422,7 +3455,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -3436,12 +3469,12 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>97</v>
@@ -3452,7 +3485,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -3463,46 +3496,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -3510,7 +3543,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -3518,46 +3551,46 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3590,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -3601,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -3612,10 +3645,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -3623,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
@@ -3637,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -3645,7 +3678,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>118</v>
@@ -3667,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -3675,40 +3708,40 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -3719,65 +3752,65 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>133</v>
@@ -3835,21 +3868,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -3857,10 +3890,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -3868,10 +3901,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -3879,10 +3912,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -3890,10 +3923,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -3901,10 +3934,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -3912,131 +3945,131 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4069,10 +4102,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -4080,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -4091,10 +4124,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -4105,7 +4138,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -4113,10 +4146,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -4127,7 +4160,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -4135,10 +4168,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -4146,54 +4179,54 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -4204,51 +4237,51 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4281,10 +4314,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
@@ -4292,10 +4325,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
@@ -4303,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -4314,10 +4347,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -4328,7 +4361,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -4336,10 +4369,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -4347,10 +4380,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -4358,109 +4391,109 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4493,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4537,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -4515,10 +4548,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
@@ -4529,7 +4562,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -4540,7 +4573,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -4548,10 +4581,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -4559,10 +4592,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
@@ -4573,73 +4606,73 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
         <v>216</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="16">
@@ -4647,54 +4680,54 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4727,10 +4760,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -4738,10 +4771,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -4749,21 +4782,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6">
@@ -4774,7 +4807,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -4785,18 +4818,18 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -4804,10 +4837,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
@@ -4815,7 +4848,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>236</v>
@@ -4834,68 +4867,68 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18">
@@ -4906,59 +4939,59 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
         <v>251</v>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,16 +41,16 @@
     <t xml:space="preserve">Number Cohort</t>
   </si>
   <si>
-    <t xml:space="preserve">50 (22.42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173 (77.58%)</t>
+    <t xml:space="preserve">48 (21.72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173 (78.28%)</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">28 (56%)</t>
+    <t xml:space="preserve">27 (56.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">75 (43.4%)</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">22 (44%)</t>
+    <t xml:space="preserve">21 (43.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">98 (56.6%)</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
-    <t xml:space="preserve">5 (10%)</t>
+    <t xml:space="preserve">5 (10.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">14 (8.1%)</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Other/Unknown Race</t>
   </si>
   <si>
-    <t xml:space="preserve">8 (16%)</t>
+    <t xml:space="preserve">8 (16.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">20 (11.6%)</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">White</t>
   </si>
   <si>
-    <t xml:space="preserve">37 (74%)</t>
+    <t xml:space="preserve">35 (72.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">133 (76.9%)</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Not Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">43 (86%)</t>
+    <t xml:space="preserve">41 (85.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">158 (91.3%)</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">Other/Unknown Ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (4%)</t>
+    <t xml:space="preserve">2 (4.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">AFR</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (8%)</t>
+    <t xml:space="preserve">4 (8.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">17 (9.8%)</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">AMR</t>
   </si>
   <si>
-    <t xml:space="preserve">7 (14%)</t>
+    <t xml:space="preserve">7 (14.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">EAS</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
-    <t xml:space="preserve">38 (76%)</t>
+    <t xml:space="preserve">36 (75%)</t>
   </si>
   <si>
     <t xml:space="preserve">135 (78%)</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">SAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (2%)</t>
+    <t xml:space="preserve">1 (2.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">4 (2.3%)</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">median_age</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57</t>
+    <t xml:space="preserve">6.93</t>
   </si>
   <si>
     <t xml:space="preserve">8.93</t>
@@ -200,165 +200,168 @@
     <t xml:space="preserve">0.32</t>
   </si>
   <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (28.12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (71.88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (40.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (37.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (59.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 (62.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (14.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (11.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (74.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (72.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (85.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (88.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (69.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (13.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 (86.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (90.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (81.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (73.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 (92.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (18.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (72.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (82.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.28</t>
   </si>
   <si>
-    <t xml:space="preserve">27 (28.12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (71.88%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (40.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (37.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (59.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 (62.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (11.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (74.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (72.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (85.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (88.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (69.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (13.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68 (86.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (90.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (81.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (73.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 (92.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (18.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (72.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (82.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">13 (18.31%)</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
     <t xml:space="preserve">2.11</t>
   </si>
   <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.29</t>
   </si>
   <si>
@@ -512,10 +518,10 @@
     <t xml:space="preserve">1.28</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
+    <t xml:space="preserve">1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
   </si>
   <si>
     <t xml:space="preserve">4 (10.26%)</t>
@@ -575,9 +581,6 @@
     <t xml:space="preserve">0.44</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 (29.63%)</t>
   </si>
   <si>
@@ -698,406 +701,415 @@
     <t xml:space="preserve">4.95</t>
   </si>
   <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (11.32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (88.68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (61.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (31.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (12.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (48.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (21.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (59.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (19.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (23.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (83.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (38.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (25.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (21.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (92.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (66.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (33.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (28.57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (71.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (30.77%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (69.23%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (88.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (33.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (55.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (44.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (77.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.22</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (11.32%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 (88.68%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (61.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (31.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (12.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian or Other Pacific Islander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (34%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (48.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (21.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (59.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (19.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (23.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (83.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (38.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (25.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
+    <t xml:space="preserve">4 (22.22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (77.78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (78.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (22.58%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (77.42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (37.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (12.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (70.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (79.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (16.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92</t>
   </si>
   <si>
     <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (21.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (92.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (35.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (44.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (55.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (33.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (88.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (25.93%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (74.07%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (65%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (30.77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (69.23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (77.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (22.22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (77.78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (85.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (78.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (22.58%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (77.42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (70.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (79.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92</t>
   </si>
   <si>
     <t xml:space="preserve">1.51</t>
@@ -1704,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -1718,7 +1730,7 @@
         <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
@@ -1729,7 +1741,7 @@
         <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -1740,7 +1752,7 @@
         <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
@@ -1751,7 +1763,7 @@
         <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -1762,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -1770,10 +1782,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -1784,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
@@ -1795,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
@@ -1806,7 +1818,7 @@
         <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1817,7 +1829,7 @@
         <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
@@ -1828,7 +1840,7 @@
         <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -1836,10 +1848,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="s">
         <v>262</v>
-      </c>
-      <c r="C14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15">
@@ -1847,10 +1859,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
         <v>264</v>
-      </c>
-      <c r="C15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="16">
@@ -1858,10 +1870,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
         <v>266</v>
-      </c>
-      <c r="C16" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17">
@@ -1869,10 +1881,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1905,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -1916,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
@@ -1927,10 +1939,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
@@ -1938,10 +1950,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
@@ -1949,10 +1961,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
@@ -1960,10 +1972,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
         <v>272</v>
-      </c>
-      <c r="C7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="8">
@@ -1974,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -1982,10 +1994,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10">
@@ -1993,10 +2005,10 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -2004,10 +2016,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12">
@@ -2015,10 +2027,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13">
@@ -2026,10 +2038,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
         <v>272</v>
-      </c>
-      <c r="C13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +2049,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15">
@@ -2048,10 +2060,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16">
@@ -2059,10 +2071,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17">
@@ -2070,10 +2082,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2106,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
@@ -2117,10 +2129,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -2128,10 +2140,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -2142,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -2153,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7">
@@ -2161,10 +2173,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
@@ -2175,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9">
@@ -2183,10 +2195,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -2197,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -2205,10 +2217,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12">
@@ -2219,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
@@ -2227,10 +2239,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2250,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15">
@@ -2249,10 +2261,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -2260,10 +2272,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
@@ -2271,7 +2283,7 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
         <v>109</v>
@@ -2307,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -2318,10 +2330,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
@@ -2329,10 +2341,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
@@ -2343,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
@@ -2354,7 +2366,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -2362,10 +2374,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -2376,7 +2388,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9">
@@ -2384,10 +2396,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10">
@@ -2395,10 +2407,10 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -2409,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12">
@@ -2417,10 +2429,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13">
@@ -2428,10 +2440,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" t="s">
         <v>314</v>
-      </c>
-      <c r="C13" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="14">
@@ -2439,10 +2451,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" t="s">
         <v>316</v>
-      </c>
-      <c r="C14" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="15">
@@ -2450,10 +2462,10 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" t="s">
         <v>318</v>
-      </c>
-      <c r="C15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="16">
@@ -2461,10 +2473,10 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" t="s">
         <v>320</v>
-      </c>
-      <c r="C16" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2497,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -2508,10 +2520,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
@@ -2519,10 +2531,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -2533,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
@@ -2544,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7">
@@ -2552,10 +2564,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
         <v>312</v>
-      </c>
-      <c r="C7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8">
@@ -2566,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9">
@@ -2574,10 +2586,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
@@ -2588,7 +2600,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -2599,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12">
@@ -2610,7 +2622,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13">
@@ -2618,10 +2630,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
@@ -2629,10 +2641,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15">
@@ -2640,10 +2652,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16">
@@ -2651,10 +2663,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
@@ -2662,10 +2674,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2698,10 +2710,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
@@ -2709,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -2723,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -2734,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -2742,10 +2754,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -2756,7 +2768,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
@@ -2764,10 +2776,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
@@ -2778,7 +2790,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -2789,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
@@ -2797,10 +2809,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
@@ -2808,10 +2820,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13">
@@ -2819,10 +2831,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14">
@@ -2830,10 +2842,10 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15">
@@ -2841,10 +2853,10 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
@@ -2888,10 +2900,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
@@ -2899,10 +2911,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
@@ -2913,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
@@ -2924,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
@@ -2932,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
@@ -2943,10 +2955,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9">
@@ -2954,10 +2966,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -2965,10 +2977,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
@@ -2979,7 +2991,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12">
@@ -2990,7 +3002,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -2998,10 +3010,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14">
@@ -3012,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15">
@@ -3020,10 +3032,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16">
@@ -3034,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17">
@@ -3042,10 +3054,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18">
@@ -3053,10 +3065,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19">
@@ -3064,10 +3076,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20">
@@ -3075,10 +3087,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3602,7 @@
         <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3623,10 +3635,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -3634,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -3645,10 +3657,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -3659,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -3670,7 +3682,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -3678,10 +3690,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -3689,10 +3701,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -3700,10 +3712,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -3711,10 +3723,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -3725,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -3733,10 +3745,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -3747,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -3758,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3766,10 +3778,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -3777,10 +3789,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -3788,10 +3800,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -3799,10 +3811,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
@@ -3810,10 +3822,10 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3846,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -3857,10 +3869,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -3868,21 +3880,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -3893,7 +3905,7 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -3904,7 +3916,7 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -3915,7 +3927,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -3923,10 +3935,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
@@ -3937,7 +3949,7 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -3945,10 +3957,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
@@ -3956,10 +3968,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -3967,10 +3979,10 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -3981,7 +3993,7 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -3989,10 +4001,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -4003,7 +4015,7 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -4011,21 +4023,21 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -4033,10 +4045,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -4044,10 +4056,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -4055,10 +4067,10 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -4066,10 +4078,10 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4102,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
@@ -4113,10 +4125,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -4124,10 +4136,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -4138,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -4146,10 +4158,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -4160,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -4168,10 +4180,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
@@ -4179,10 +4191,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
@@ -4190,10 +4202,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -4201,10 +4213,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -4215,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
@@ -4223,10 +4235,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
@@ -4237,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
@@ -4245,10 +4257,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -4256,10 +4268,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -4267,10 +4279,10 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -4278,10 +4290,10 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4314,10 +4326,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
@@ -4325,10 +4337,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -4336,10 +4348,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4359,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -4361,7 +4373,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -4369,10 +4381,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -4380,10 +4392,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -4391,10 +4403,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -4402,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -4413,10 +4425,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -4424,10 +4436,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
@@ -4435,10 +4447,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -4446,10 +4458,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
@@ -4457,10 +4469,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -4468,10 +4480,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
@@ -4479,10 +4491,10 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
@@ -4490,10 +4502,10 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4526,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
@@ -4537,10 +4549,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4">
@@ -4548,10 +4560,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -4562,7 +4574,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -4573,7 +4585,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
@@ -4581,10 +4593,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8">
@@ -4592,10 +4604,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -4606,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
@@ -4614,10 +4626,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
@@ -4625,10 +4637,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -4639,7 +4651,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -4650,7 +4662,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14">
@@ -4658,10 +4670,10 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -4669,10 +4681,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
@@ -4680,10 +4692,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
@@ -4691,10 +4703,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18">
@@ -4702,10 +4714,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
@@ -4713,10 +4725,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
@@ -4724,10 +4736,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4760,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -4771,10 +4783,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -4782,21 +4794,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -4807,7 +4819,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -4818,7 +4830,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -4829,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4907,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -4917,7 +4929,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
@@ -4944,7 +4956,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -4969,10 +4981,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
         <v>248</v>
-      </c>
-      <c r="C21" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="22">
@@ -4980,10 +4992,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
@@ -4991,10 +5003,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -833,55 +833,37 @@
     <t xml:space="preserve">0.31</t>
   </si>
   <si>
-    <t xml:space="preserve">10 (66.67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (33.33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
+    <t xml:space="preserve">11 (73.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (26.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (45.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (54.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (36.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
   </si>
   <si>
     <t xml:space="preserve">0.11</t>
@@ -1931,7 +1913,7 @@
         <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
@@ -1939,10 +1921,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -1950,10 +1932,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -1961,10 +1943,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1957,7 @@
         <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1986,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1994,10 +1976,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -2005,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>144</v>
@@ -2016,10 +1998,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -2027,10 +2009,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
@@ -2041,7 +2023,7 @@
         <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
@@ -2049,10 +2031,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15">
@@ -2060,10 +2042,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16">
@@ -2071,10 +2053,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
@@ -2085,7 +2067,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2118,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -2129,10 +2111,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
@@ -2143,7 +2125,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
@@ -2154,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -2165,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -2173,10 +2155,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
@@ -2187,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -2195,10 +2177,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
@@ -2209,7 +2191,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -2220,7 +2202,7 @@
         <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -2231,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13">
@@ -2250,10 +2232,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">
@@ -2261,10 +2243,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16">
@@ -2272,10 +2254,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17">
@@ -2283,7 +2265,7 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
         <v>109</v>
@@ -2319,10 +2301,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
@@ -2333,7 +2315,7 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -2344,7 +2326,7 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -2355,7 +2337,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -2366,7 +2348,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -2374,10 +2356,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
@@ -2388,7 +2370,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -2396,10 +2378,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -2410,7 +2392,7 @@
         <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -2421,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12">
@@ -2432,7 +2414,7 @@
         <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
@@ -2440,10 +2422,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
@@ -2451,10 +2433,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
@@ -2462,10 +2444,10 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
@@ -2473,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2509,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
@@ -2523,7 +2505,7 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
@@ -2534,7 +2516,7 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
@@ -2545,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
@@ -2556,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2546,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
@@ -2578,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -2586,10 +2568,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
@@ -2600,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -2611,7 +2593,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12">
@@ -2622,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13">
@@ -2630,10 +2612,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14">
@@ -2641,10 +2623,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15">
@@ -2652,7 +2634,7 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
         <v>248</v>
@@ -2663,7 +2645,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
         <v>248</v>
@@ -2677,7 +2659,7 @@
         <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2710,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
@@ -2721,10 +2703,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
@@ -2735,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
@@ -2746,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
@@ -2754,10 +2736,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
@@ -2768,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
@@ -2776,10 +2758,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
@@ -2801,7 +2783,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
@@ -2809,10 +2791,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12">
@@ -2820,10 +2802,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13">
@@ -2831,10 +2813,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14">
@@ -2842,10 +2824,10 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15">
@@ -2856,7 +2838,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2889,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
@@ -2900,10 +2882,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
@@ -2911,10 +2893,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
@@ -2925,7 +2907,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -2936,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
@@ -2944,10 +2926,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
@@ -2955,10 +2937,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
@@ -2966,10 +2948,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
@@ -2977,10 +2959,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
@@ -2991,7 +2973,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12">
@@ -3002,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13">
@@ -3010,10 +2992,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14">
@@ -3024,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
@@ -3032,10 +3014,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16">
@@ -3046,7 +3028,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
@@ -3054,10 +3036,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18">
@@ -3065,10 +3047,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19">
@@ -3076,10 +3058,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20">

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -782,126 +782,141 @@
     <t xml:space="preserve">0.64</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (30%)</t>
+    <t xml:space="preserve">5 (26.32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (73.68%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (35.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (64.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (28.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (71.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (21.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (92.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (73.33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (26.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (45.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (54.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (36.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (28.57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (71.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (62.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10%)</t>
   </si>
   <si>
     <t xml:space="preserve">14 (70%)</t>
   </si>
   <si>
-    <t xml:space="preserve">5 (35.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (64.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (21.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (92.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (73.33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (26.67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (45.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (54.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (36.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (28.57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (71.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (65%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.45</t>
   </si>
   <si>
@@ -1031,70 +1046,43 @@
     <t xml:space="preserve">3.26</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (22.58%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (77.42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (42.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (37.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (57.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (62.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (12.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (70.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (28.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (71.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (79.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
+    <t xml:space="preserve">6 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (76%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (42.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (57.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (73.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (21.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (63.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1697,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
@@ -1720,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -1731,10 +1719,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
@@ -1742,10 +1730,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
@@ -1756,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1752,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
@@ -1778,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -1797,7 +1785,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -1808,10 +1796,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
@@ -1819,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -1830,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
@@ -1841,10 +1829,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16">
@@ -1852,10 +1840,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -1863,7 +1851,7 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
         <v>134</v>
@@ -1899,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
@@ -1910,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
@@ -1921,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
         <v>177</v>
@@ -1932,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>144</v>
@@ -1954,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>169</v>
@@ -1998,7 +1986,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -2020,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
         <v>169</v>
@@ -2031,10 +2019,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15">
@@ -2042,10 +2030,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
@@ -2053,10 +2041,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17">
@@ -2067,7 +2055,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2100,10 +2088,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -2111,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
@@ -2125,7 +2113,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -2136,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
@@ -2147,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -2155,10 +2143,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
@@ -2169,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2165,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
@@ -2191,7 +2179,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -2202,7 +2190,7 @@
         <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12">
@@ -2213,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13">
@@ -2224,7 +2212,7 @@
         <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14">
@@ -2232,10 +2220,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15">
@@ -2243,10 +2231,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16">
@@ -2254,10 +2242,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
@@ -2265,7 +2253,7 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>109</v>
@@ -2301,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
@@ -2315,7 +2303,7 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -2326,7 +2314,7 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
@@ -2337,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
@@ -2348,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7">
@@ -2356,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8">
@@ -2370,7 +2358,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -2378,10 +2366,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10">
@@ -2392,7 +2380,7 @@
         <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -2403,7 +2391,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12">
@@ -2414,7 +2402,7 @@
         <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13">
@@ -2422,10 +2410,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14">
@@ -2433,10 +2421,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
@@ -2444,10 +2432,10 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16">
@@ -2455,10 +2443,10 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2491,10 +2479,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
@@ -2505,7 +2493,7 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
@@ -2516,7 +2504,7 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
@@ -2527,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
@@ -2538,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7">
@@ -2546,10 +2534,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8">
@@ -2560,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -2568,10 +2556,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10">
@@ -2582,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -2593,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12">
@@ -2604,7 +2592,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
@@ -2612,10 +2600,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14">
@@ -2623,10 +2611,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
@@ -2634,7 +2622,7 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
         <v>248</v>
@@ -2645,7 +2633,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
         <v>248</v>
@@ -2659,7 +2647,7 @@
         <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2692,10 +2680,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -2703,10 +2691,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -2717,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
@@ -2728,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6">
@@ -2736,10 +2724,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -2750,7 +2738,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -2758,10 +2746,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
@@ -2772,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
@@ -2783,7 +2771,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11">
@@ -2791,10 +2779,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
@@ -2802,10 +2790,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
@@ -2813,10 +2801,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14">
@@ -2824,10 +2812,10 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15">
@@ -2838,7 +2826,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2871,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
@@ -2882,10 +2870,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
@@ -2893,10 +2881,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -2907,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -2918,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -2926,10 +2914,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
@@ -2937,7 +2925,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
         <v>343</v>
@@ -2948,10 +2936,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -2959,120 +2947,109 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -203,270 +203,264 @@
     <t xml:space="preserve">0.25</t>
   </si>
   <si>
-    <t xml:space="preserve">27 (28.12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 (71.88%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (40.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (37.7%)</t>
+    <t xml:space="preserve">28 (29.17%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 (70.83%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (42.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (36.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (57.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 (63.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (11.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (72.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (85.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 (88.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (13.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (69.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (13.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 (86.08%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (9.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (90.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (81.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (73.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 (92.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (18.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (72.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (82.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (18.31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 (81.69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (46.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (41.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (53.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (58.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (92.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (67.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (5.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (15.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (35.53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (64.47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (48.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (51%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (34.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (14.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (29.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">16 (59.3%)</t>
   </si>
   <si>
-    <t xml:space="preserve">43 (62.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (11.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (74.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (72.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (85.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (88.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (69.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (13.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68 (86.08%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (90.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (81.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (73.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 (92.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (18.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (72.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (82.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (18.31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 (81.69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (46.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (41.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (53.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (58.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (92.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (67.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (5.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (15.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (35.53%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 (64.47%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (48.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (51%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (34.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (14.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (29.6%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">38 (77.6%)</t>
   </si>
   <si>
@@ -699,9 +693,6 @@
   </si>
   <si>
     <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
   </si>
   <si>
     <t xml:space="preserve">6 (11.32%)</t>
@@ -1686,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
@@ -1697,10 +1688,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -1708,10 +1699,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
@@ -1719,10 +1710,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
@@ -1730,10 +1721,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -1744,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
@@ -1752,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -1766,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -1777,7 +1768,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11">
@@ -1785,10 +1776,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -1796,10 +1787,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13">
@@ -1807,10 +1798,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1818,10 +1809,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15">
@@ -1829,10 +1820,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16">
@@ -1840,10 +1831,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17">
@@ -1851,10 +1842,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1887,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -1898,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1909,10 +1900,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1911,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -1931,10 +1922,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -1942,10 +1933,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -1956,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -1967,7 +1958,7 @@
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
@@ -1978,7 +1969,7 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -1986,10 +1977,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -1997,10 +1988,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -2008,10 +1999,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
@@ -2019,10 +2010,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15">
@@ -2030,10 +2021,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16">
@@ -2041,10 +2032,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17">
@@ -2055,7 +2046,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2079,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -2110,10 +2101,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
@@ -2124,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
@@ -2135,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
@@ -2143,10 +2134,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -2157,7 +2148,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -2165,10 +2156,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="s">
         <v>290</v>
-      </c>
-      <c r="C9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10">
@@ -2179,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11">
@@ -2187,10 +2178,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12">
@@ -2201,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
@@ -2209,10 +2200,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
@@ -2220,10 +2211,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">
@@ -2231,10 +2222,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16">
@@ -2242,10 +2233,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
@@ -2253,10 +2244,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2289,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -2300,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -2311,10 +2302,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -2325,7 +2316,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
@@ -2336,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
@@ -2344,10 +2335,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
@@ -2358,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -2366,10 +2357,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10">
@@ -2377,10 +2368,10 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -2391,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12">
@@ -2399,10 +2390,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
@@ -2410,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2412,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15">
@@ -2432,10 +2423,10 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16">
@@ -2443,10 +2434,10 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2479,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -2490,10 +2481,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
@@ -2501,10 +2492,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
@@ -2515,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6">
@@ -2526,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -2534,10 +2525,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
         <v>308</v>
-      </c>
-      <c r="C7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8">
@@ -2548,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -2556,10 +2547,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
@@ -2570,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -2581,7 +2572,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12">
@@ -2592,7 +2583,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13">
@@ -2600,10 +2591,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14">
@@ -2611,10 +2602,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
@@ -2622,10 +2613,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
@@ -2633,10 +2624,10 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17">
@@ -2644,10 +2635,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2680,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -2691,10 +2682,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4">
@@ -2705,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
@@ -2716,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
@@ -2724,10 +2715,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
@@ -2738,7 +2729,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8">
@@ -2746,10 +2737,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
@@ -2760,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10">
@@ -2771,7 +2762,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
@@ -2779,10 +2770,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
@@ -2790,10 +2781,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
@@ -2801,10 +2792,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14">
@@ -2812,10 +2803,10 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
@@ -2826,7 +2817,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2859,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
@@ -2870,10 +2861,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
@@ -2881,10 +2872,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
@@ -2895,7 +2886,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -2906,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -2914,10 +2905,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -2925,10 +2916,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -2936,10 +2927,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10">
@@ -2947,10 +2938,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -2961,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
@@ -2969,10 +2960,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13">
@@ -2983,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -2991,10 +2982,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15">
@@ -3005,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -3013,10 +3004,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17">
@@ -3024,10 +3015,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18">
@@ -3035,10 +3026,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19">
@@ -3049,7 +3040,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -3396,7 +3387,7 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -3407,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -3418,7 +3409,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -3426,10 +3417,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -3448,10 +3439,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -3462,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -3470,10 +3461,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -3503,10 +3494,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -3517,7 +3508,7 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -3525,10 +3516,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3536,10 +3527,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -3547,10 +3538,10 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3558,10 +3549,10 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3594,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -3605,10 +3596,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -3616,10 +3607,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -3630,7 +3621,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -3641,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -3649,10 +3640,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -3660,10 +3651,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -3671,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -3682,10 +3673,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -3696,7 +3687,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -3704,10 +3695,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -3718,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -3729,7 +3720,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -3737,10 +3728,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
@@ -3748,10 +3739,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -3759,10 +3750,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -3770,10 +3761,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -3781,10 +3772,10 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3817,10 +3808,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -3828,10 +3819,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -3839,21 +3830,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -3861,10 +3852,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -3872,10 +3863,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -3883,10 +3874,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -3894,10 +3885,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -3905,10 +3896,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -3916,10 +3907,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -3927,10 +3918,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -3938,10 +3929,10 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -3949,10 +3940,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -3960,10 +3951,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -3971,10 +3962,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -3982,21 +3973,21 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
         <v>154</v>
-      </c>
-      <c r="B18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -4004,10 +3995,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -4015,10 +4006,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -4026,10 +4017,10 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -4037,10 +4028,10 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4073,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -4084,10 +4075,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -4095,10 +4086,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -4109,7 +4100,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -4117,10 +4108,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -4131,7 +4122,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -4139,10 +4130,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -4150,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -4161,10 +4152,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -4172,10 +4163,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -4186,7 +4177,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -4194,10 +4185,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -4208,7 +4199,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -4216,10 +4207,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
@@ -4227,10 +4218,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -4238,10 +4229,10 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -4249,10 +4240,10 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4285,10 +4276,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -4296,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
@@ -4307,10 +4298,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -4318,10 +4309,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -4332,7 +4323,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -4340,10 +4331,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
@@ -4351,10 +4342,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -4362,10 +4353,10 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10">
@@ -4373,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -4384,10 +4375,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -4395,10 +4386,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
@@ -4406,10 +4397,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14">
@@ -4417,10 +4408,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
@@ -4428,10 +4419,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
@@ -4439,10 +4430,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -4450,10 +4441,10 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -4461,10 +4452,10 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -4508,10 +4499,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -4519,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -4533,7 +4524,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -4544,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
@@ -4552,10 +4543,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -4563,10 +4554,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -4577,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -4585,10 +4576,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11">
@@ -4596,10 +4587,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -4610,7 +4601,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -4621,7 +4612,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -4629,10 +4620,10 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -4640,10 +4631,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16">
@@ -4651,10 +4642,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17">
@@ -4662,10 +4653,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18">
@@ -4673,10 +4664,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -4684,10 +4675,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
@@ -4695,10 +4686,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4731,10 +4722,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
@@ -4742,10 +4733,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -4753,21 +4744,21 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
@@ -4778,7 +4769,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7">
@@ -4794,7 +4785,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -4808,10 +4799,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
@@ -4819,10 +4810,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -4830,10 +4821,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -4841,10 +4832,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -4852,10 +4843,10 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
         <v>237</v>
-      </c>
-      <c r="C13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -4874,10 +4865,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -4888,7 +4879,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
@@ -4896,10 +4887,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -4910,18 +4901,18 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20">
@@ -4929,10 +4920,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
@@ -4940,10 +4931,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
@@ -4951,10 +4942,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23">
@@ -4962,10 +4953,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -32,10 +32,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">cpgPLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_cpgPLP</t>
+    <t xml:space="preserve">CPG P-LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No CPG P-LP</t>
   </si>
   <si>
     <t xml:space="preserve">Number Cohort</t>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -32,10 +32,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">CPG P-LP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No CPG P-LP</t>
+    <t xml:space="preserve">CPG P/LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No CPG P/LP</t>
   </si>
   <si>
     <t xml:space="preserve">Number Cohort</t>
